--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,21 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
   </si>
   <si>
     <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H2">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I2">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J2">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.161363346507542</v>
+        <v>0.3777296666666667</v>
       </c>
       <c r="N2">
-        <v>0.161363346507542</v>
+        <v>1.133189</v>
       </c>
       <c r="O2">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="P2">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="Q2">
-        <v>1.823497085276362</v>
+        <v>0.1503284750103334</v>
       </c>
       <c r="R2">
-        <v>1.823497085276362</v>
+        <v>1.352956275093</v>
       </c>
       <c r="S2">
-        <v>0.09482126409504257</v>
+        <v>0.005691908218717001</v>
       </c>
       <c r="T2">
-        <v>0.09482126409504257</v>
+        <v>0.005691908218717001</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H3">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I3">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J3">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.05959033377379</v>
+        <v>1.092289666666667</v>
       </c>
       <c r="N3">
-        <v>1.05959033377379</v>
+        <v>3.276869</v>
       </c>
       <c r="O3">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="P3">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="Q3">
-        <v>11.97397009322192</v>
+        <v>0.4347083492503334</v>
       </c>
       <c r="R3">
-        <v>11.97397009322192</v>
+        <v>3.912375143253</v>
       </c>
       <c r="S3">
-        <v>0.6226426077908769</v>
+        <v>0.01645942344371412</v>
       </c>
       <c r="T3">
-        <v>0.6226426077908769</v>
+        <v>0.01645942344371412</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H4">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I4">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J4">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.206895846244706</v>
+        <v>0.310473</v>
       </c>
       <c r="N4">
-        <v>0.206895846244706</v>
+        <v>0.931419</v>
       </c>
       <c r="O4">
-        <v>0.1449003150549654</v>
+        <v>0.174374803074131</v>
       </c>
       <c r="P4">
-        <v>0.1449003150549654</v>
+        <v>0.174374803074131</v>
       </c>
       <c r="Q4">
-        <v>2.338040086230947</v>
+        <v>0.123561734067</v>
       </c>
       <c r="R4">
-        <v>2.338040086230947</v>
+        <v>1.112055606603</v>
       </c>
       <c r="S4">
-        <v>0.1215773352594646</v>
+        <v>0.004678435337061311</v>
       </c>
       <c r="T4">
-        <v>0.1215773352594646</v>
+        <v>0.00467843533706131</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +714,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.16786182214407</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H5">
-        <v>2.16786182214407</v>
+        <v>34.046756</v>
       </c>
       <c r="I5">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="J5">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.161363346507542</v>
+        <v>0.3777296666666667</v>
       </c>
       <c r="N5">
-        <v>0.161363346507542</v>
+        <v>1.133189</v>
       </c>
       <c r="O5">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="P5">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="Q5">
-        <v>0.3498134383871049</v>
+        <v>4.286823264987111</v>
       </c>
       <c r="R5">
-        <v>0.3498134383871049</v>
+        <v>38.581409384884</v>
       </c>
       <c r="S5">
-        <v>0.01819018669847312</v>
+        <v>0.1623125929567912</v>
       </c>
       <c r="T5">
-        <v>0.01819018669847312</v>
+        <v>0.1623125929567912</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.16786182214407</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H6">
-        <v>2.16786182214407</v>
+        <v>34.046756</v>
       </c>
       <c r="I6">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="J6">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.05959033377379</v>
+        <v>1.092289666666667</v>
       </c>
       <c r="N6">
-        <v>1.05959033377379</v>
+        <v>3.276869</v>
       </c>
       <c r="O6">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="P6">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="Q6">
-        <v>2.297045431701092</v>
+        <v>12.39630658744045</v>
       </c>
       <c r="R6">
-        <v>2.297045431701092</v>
+        <v>111.566759286964</v>
       </c>
       <c r="S6">
-        <v>0.1194456263606421</v>
+        <v>0.4693631019800997</v>
       </c>
       <c r="T6">
-        <v>0.1194456263606421</v>
+        <v>0.4693631019800997</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +838,805 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>11.34891866666667</v>
+      </c>
+      <c r="H7">
+        <v>34.046756</v>
+      </c>
+      <c r="I7">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="J7">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.310473</v>
+      </c>
+      <c r="N7">
+        <v>0.931419</v>
+      </c>
+      <c r="O7">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="P7">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="Q7">
+        <v>3.523532825196</v>
+      </c>
+      <c r="R7">
+        <v>31.711795426764</v>
+      </c>
+      <c r="S7">
+        <v>0.1334120195476849</v>
+      </c>
+      <c r="T7">
+        <v>0.1334120195476849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.119535</v>
+      </c>
+      <c r="H8">
+        <v>0.358605</v>
+      </c>
+      <c r="I8">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J8">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.3777296666666667</v>
+      </c>
+      <c r="N8">
+        <v>1.133189</v>
+      </c>
+      <c r="O8">
+        <v>0.2121489992374768</v>
+      </c>
+      <c r="P8">
+        <v>0.2121489992374768</v>
+      </c>
+      <c r="Q8">
+        <v>0.045151915705</v>
+      </c>
+      <c r="R8">
+        <v>0.406367241345</v>
+      </c>
+      <c r="S8">
+        <v>0.001709593342674706</v>
+      </c>
+      <c r="T8">
+        <v>0.001709593342674706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.119535</v>
+      </c>
+      <c r="H9">
+        <v>0.358605</v>
+      </c>
+      <c r="I9">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J9">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.092289666666667</v>
+      </c>
+      <c r="N9">
+        <v>3.276869</v>
+      </c>
+      <c r="O9">
+        <v>0.6134761976883921</v>
+      </c>
+      <c r="P9">
+        <v>0.6134761976883921</v>
+      </c>
+      <c r="Q9">
+        <v>0.130566845305</v>
+      </c>
+      <c r="R9">
+        <v>1.175101607745</v>
+      </c>
+      <c r="S9">
+        <v>0.00494367085033222</v>
+      </c>
+      <c r="T9">
+        <v>0.004943670850332222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.119535</v>
+      </c>
+      <c r="H10">
+        <v>0.358605</v>
+      </c>
+      <c r="I10">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J10">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.310473</v>
+      </c>
+      <c r="N10">
+        <v>0.931419</v>
+      </c>
+      <c r="O10">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="P10">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="Q10">
+        <v>0.037112390055</v>
+      </c>
+      <c r="R10">
+        <v>0.334011510495</v>
+      </c>
+      <c r="S10">
+        <v>0.001405191650855004</v>
+      </c>
+      <c r="T10">
+        <v>0.001405191650855005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H11">
+        <v>1.372081</v>
+      </c>
+      <c r="I11">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J11">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3777296666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.133189</v>
+      </c>
+      <c r="O11">
+        <v>0.2121489992374768</v>
+      </c>
+      <c r="P11">
+        <v>0.2121489992374768</v>
+      </c>
+      <c r="Q11">
+        <v>0.1727585662565556</v>
+      </c>
+      <c r="R11">
+        <v>1.554827096309</v>
+      </c>
+      <c r="S11">
+        <v>0.006541181922199783</v>
+      </c>
+      <c r="T11">
+        <v>0.006541181922199783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.16786182214407</v>
-      </c>
-      <c r="H7">
-        <v>2.16786182214407</v>
-      </c>
-      <c r="I7">
-        <v>0.160958792854616</v>
-      </c>
-      <c r="J7">
-        <v>0.160958792854616</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.206895846244706</v>
-      </c>
-      <c r="N7">
-        <v>0.206895846244706</v>
-      </c>
-      <c r="O7">
-        <v>0.1449003150549654</v>
-      </c>
-      <c r="P7">
-        <v>0.1449003150549654</v>
-      </c>
-      <c r="Q7">
-        <v>0.4485216062340877</v>
-      </c>
-      <c r="R7">
-        <v>0.4485216062340877</v>
-      </c>
-      <c r="S7">
-        <v>0.02332297979550076</v>
-      </c>
-      <c r="T7">
-        <v>0.02332297979550076</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H12">
+        <v>1.372081</v>
+      </c>
+      <c r="I12">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J12">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.092289666666667</v>
+      </c>
+      <c r="N12">
+        <v>3.276869</v>
+      </c>
+      <c r="O12">
+        <v>0.6134761976883921</v>
+      </c>
+      <c r="P12">
+        <v>0.6134761976883921</v>
+      </c>
+      <c r="Q12">
+        <v>0.4995699660432222</v>
+      </c>
+      <c r="R12">
+        <v>4.496129694389</v>
+      </c>
+      <c r="S12">
+        <v>0.01891528797421866</v>
+      </c>
+      <c r="T12">
+        <v>0.01891528797421867</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.372081</v>
+      </c>
+      <c r="I13">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J13">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.310473</v>
+      </c>
+      <c r="N13">
+        <v>0.931419</v>
+      </c>
+      <c r="O13">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="P13">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="Q13">
+        <v>0.141998034771</v>
+      </c>
+      <c r="R13">
+        <v>1.277982312939</v>
+      </c>
+      <c r="S13">
+        <v>0.005376491586834499</v>
+      </c>
+      <c r="T13">
+        <v>0.005376491586834498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.391799</v>
+      </c>
+      <c r="I14">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J14">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3777296666666667</v>
+      </c>
+      <c r="N14">
+        <v>1.133189</v>
+      </c>
+      <c r="O14">
+        <v>0.2121489992374768</v>
+      </c>
+      <c r="P14">
+        <v>0.2121489992374768</v>
+      </c>
+      <c r="Q14">
+        <v>0.04933136855677778</v>
+      </c>
+      <c r="R14">
+        <v>0.443982317011</v>
+      </c>
+      <c r="S14">
+        <v>0.001867840554556147</v>
+      </c>
+      <c r="T14">
+        <v>0.001867840554556147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.391799</v>
+      </c>
+      <c r="I15">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J15">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.092289666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.276869</v>
+      </c>
+      <c r="O15">
+        <v>0.6134761976883921</v>
+      </c>
+      <c r="P15">
+        <v>0.6134761976883921</v>
+      </c>
+      <c r="Q15">
+        <v>0.1426526663701111</v>
+      </c>
+      <c r="R15">
+        <v>1.283873997331</v>
+      </c>
+      <c r="S15">
+        <v>0.005401277995257495</v>
+      </c>
+      <c r="T15">
+        <v>0.005401277995257495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.391799</v>
+      </c>
+      <c r="I16">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J16">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.310473</v>
+      </c>
+      <c r="N16">
+        <v>0.931419</v>
+      </c>
+      <c r="O16">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="P16">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="Q16">
+        <v>0.040547670309</v>
+      </c>
+      <c r="R16">
+        <v>0.364929032781</v>
+      </c>
+      <c r="S16">
+        <v>0.001535262150871683</v>
+      </c>
+      <c r="T16">
+        <v>0.001535262150871683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H17">
+        <v>7.137283</v>
+      </c>
+      <c r="I17">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J17">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3777296666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.133189</v>
+      </c>
+      <c r="O17">
+        <v>0.2121489992374768</v>
+      </c>
+      <c r="P17">
+        <v>0.2121489992374768</v>
+      </c>
+      <c r="Q17">
+        <v>0.8986545094985555</v>
+      </c>
+      <c r="R17">
+        <v>8.087890585487001</v>
+      </c>
+      <c r="S17">
+        <v>0.03402588224253803</v>
+      </c>
+      <c r="T17">
+        <v>0.03402588224253803</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H18">
+        <v>7.137283</v>
+      </c>
+      <c r="I18">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J18">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.092289666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.276869</v>
+      </c>
+      <c r="O18">
+        <v>0.6134761976883921</v>
+      </c>
+      <c r="P18">
+        <v>0.6134761976883921</v>
+      </c>
+      <c r="Q18">
+        <v>2.598660156325222</v>
+      </c>
+      <c r="R18">
+        <v>23.387941406927</v>
+      </c>
+      <c r="S18">
+        <v>0.09839343544476988</v>
+      </c>
+      <c r="T18">
+        <v>0.0983934354447699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H19">
+        <v>7.137283</v>
+      </c>
+      <c r="I19">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J19">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.310473</v>
+      </c>
+      <c r="N19">
+        <v>0.931419</v>
+      </c>
+      <c r="O19">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="P19">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="Q19">
+        <v>0.738644554953</v>
+      </c>
+      <c r="R19">
+        <v>6.647800994577</v>
+      </c>
+      <c r="S19">
+        <v>0.02796740280082363</v>
+      </c>
+      <c r="T19">
+        <v>0.02796740280082363</v>
       </c>
     </row>
   </sheetData>
